--- a/Prices/dns/dns--Проектор--Jun-24--0.xlsx
+++ b/Prices/dns/dns--Проектор--Jun-24--0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$151</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="571">
   <si>
     <t>Name</t>
   </si>
@@ -1675,9 +1678,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -1688,9 +1688,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>1930</t>
   </si>
   <si>
     <t>24</t>
@@ -1810,8 +1807,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1819,9 +1816,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1859,7 +1856,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1929,7 +1926,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2105,9 +2102,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
@@ -2735,9 +2737,6 @@
       <c r="K18" t="s">
         <v>542</v>
       </c>
-      <c r="L18" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
@@ -2771,7 +2770,7 @@
         <v>542</v>
       </c>
       <c r="L19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2806,7 +2805,7 @@
         <v>542</v>
       </c>
       <c r="L20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2876,7 +2875,7 @@
         <v>542</v>
       </c>
       <c r="L22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2910,9 +2909,6 @@
       <c r="K23" t="s">
         <v>542</v>
       </c>
-      <c r="L23" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
@@ -2946,7 +2942,7 @@
         <v>542</v>
       </c>
       <c r="L24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3015,9 +3011,6 @@
       <c r="K26" t="s">
         <v>542</v>
       </c>
-      <c r="L26" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
@@ -3086,7 +3079,7 @@
         <v>542</v>
       </c>
       <c r="L28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3121,7 +3114,7 @@
         <v>542</v>
       </c>
       <c r="L29" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3190,9 +3183,6 @@
       <c r="K31" t="s">
         <v>542</v>
       </c>
-      <c r="L31" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
@@ -3261,7 +3251,7 @@
         <v>542</v>
       </c>
       <c r="L33" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3296,7 +3286,7 @@
         <v>542</v>
       </c>
       <c r="L34" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3331,7 +3321,7 @@
         <v>542</v>
       </c>
       <c r="L35" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3366,7 +3356,7 @@
         <v>542</v>
       </c>
       <c r="L36" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3401,7 +3391,7 @@
         <v>542</v>
       </c>
       <c r="L37" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3436,7 +3426,7 @@
         <v>542</v>
       </c>
       <c r="L38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3471,7 +3461,7 @@
         <v>542</v>
       </c>
       <c r="L39" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3505,9 +3495,6 @@
       <c r="K40" t="s">
         <v>542</v>
       </c>
-      <c r="L40" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
@@ -3576,7 +3563,7 @@
         <v>542</v>
       </c>
       <c r="L42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3611,7 +3598,7 @@
         <v>542</v>
       </c>
       <c r="L43" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3681,7 +3668,7 @@
         <v>542</v>
       </c>
       <c r="L45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3715,9 +3702,6 @@
       <c r="K46" t="s">
         <v>542</v>
       </c>
-      <c r="L46" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
@@ -3786,7 +3770,7 @@
         <v>542</v>
       </c>
       <c r="L48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3856,7 +3840,7 @@
         <v>542</v>
       </c>
       <c r="L50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3890,9 +3874,6 @@
       <c r="K51" t="s">
         <v>542</v>
       </c>
-      <c r="L51" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
@@ -3926,7 +3907,7 @@
         <v>542</v>
       </c>
       <c r="L52" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4031,7 +4012,7 @@
         <v>542</v>
       </c>
       <c r="L55" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4066,7 +4047,7 @@
         <v>542</v>
       </c>
       <c r="L56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4101,7 +4082,7 @@
         <v>542</v>
       </c>
       <c r="L57" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4136,7 +4117,7 @@
         <v>542</v>
       </c>
       <c r="L58" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4170,9 +4151,6 @@
       <c r="K59" t="s">
         <v>542</v>
       </c>
-      <c r="L59" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
@@ -4275,9 +4253,6 @@
       <c r="K62" t="s">
         <v>542</v>
       </c>
-      <c r="L62" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
@@ -4381,7 +4356,7 @@
         <v>542</v>
       </c>
       <c r="L65" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4416,7 +4391,7 @@
         <v>542</v>
       </c>
       <c r="L66" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4450,9 +4425,6 @@
       <c r="K67" t="s">
         <v>542</v>
       </c>
-      <c r="L67" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
@@ -4485,9 +4457,6 @@
       <c r="K68" t="s">
         <v>542</v>
       </c>
-      <c r="L68" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
@@ -4520,9 +4489,6 @@
       <c r="K69" t="s">
         <v>542</v>
       </c>
-      <c r="L69" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
@@ -4556,7 +4522,7 @@
         <v>542</v>
       </c>
       <c r="L70" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4591,7 +4557,7 @@
         <v>542</v>
       </c>
       <c r="L71" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4626,7 +4592,7 @@
         <v>542</v>
       </c>
       <c r="L72" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4660,9 +4626,6 @@
       <c r="K73" t="s">
         <v>542</v>
       </c>
-      <c r="L73" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
@@ -4731,7 +4694,7 @@
         <v>542</v>
       </c>
       <c r="L75" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4765,9 +4728,6 @@
       <c r="K76" t="s">
         <v>542</v>
       </c>
-      <c r="L76" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
@@ -4801,7 +4761,7 @@
         <v>542</v>
       </c>
       <c r="L77" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4835,9 +4795,6 @@
       <c r="K78" t="s">
         <v>542</v>
       </c>
-      <c r="L78" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
@@ -5010,9 +4967,6 @@
       <c r="K83" t="s">
         <v>542</v>
       </c>
-      <c r="L83" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
@@ -5081,7 +5035,7 @@
         <v>542</v>
       </c>
       <c r="L85" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5116,7 +5070,7 @@
         <v>542</v>
       </c>
       <c r="L86" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5185,9 +5139,6 @@
       <c r="K88" t="s">
         <v>542</v>
       </c>
-      <c r="L88" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
@@ -5256,7 +5207,7 @@
         <v>542</v>
       </c>
       <c r="L90" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5291,7 +5242,7 @@
         <v>542</v>
       </c>
       <c r="L91" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5326,7 +5277,7 @@
         <v>542</v>
       </c>
       <c r="L92" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5396,7 +5347,7 @@
         <v>542</v>
       </c>
       <c r="L94" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5430,9 +5381,6 @@
       <c r="K95" t="s">
         <v>542</v>
       </c>
-      <c r="L95" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
@@ -5466,7 +5414,7 @@
         <v>542</v>
       </c>
       <c r="L96" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5501,7 +5449,7 @@
         <v>542</v>
       </c>
       <c r="L97" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5535,9 +5483,6 @@
       <c r="K98" t="s">
         <v>542</v>
       </c>
-      <c r="L98" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
@@ -5570,9 +5515,6 @@
       <c r="K99" t="s">
         <v>542</v>
       </c>
-      <c r="L99" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
@@ -5606,7 +5548,7 @@
         <v>542</v>
       </c>
       <c r="L100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5640,9 +5582,6 @@
       <c r="K101" t="s">
         <v>542</v>
       </c>
-      <c r="L101" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
@@ -5676,7 +5615,7 @@
         <v>542</v>
       </c>
       <c r="L102" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5746,7 +5685,7 @@
         <v>542</v>
       </c>
       <c r="L104" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5780,9 +5719,6 @@
       <c r="K105" t="s">
         <v>542</v>
       </c>
-      <c r="L105" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
@@ -5815,9 +5751,6 @@
       <c r="K106" t="s">
         <v>542</v>
       </c>
-      <c r="L106" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
@@ -5850,9 +5783,6 @@
       <c r="K107" t="s">
         <v>542</v>
       </c>
-      <c r="L107" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
@@ -5885,9 +5815,6 @@
       <c r="K108" t="s">
         <v>542</v>
       </c>
-      <c r="L108" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
@@ -5920,9 +5847,6 @@
       <c r="K109" t="s">
         <v>542</v>
       </c>
-      <c r="L109" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
@@ -5955,9 +5879,6 @@
       <c r="K110" t="s">
         <v>542</v>
       </c>
-      <c r="L110" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
@@ -5990,9 +5911,6 @@
       <c r="K111" t="s">
         <v>542</v>
       </c>
-      <c r="L111" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
@@ -6025,9 +5943,6 @@
       <c r="K112" t="s">
         <v>542</v>
       </c>
-      <c r="L112" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
@@ -6060,9 +5975,6 @@
       <c r="K113" t="s">
         <v>542</v>
       </c>
-      <c r="L113" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
@@ -6096,7 +6008,7 @@
         <v>542</v>
       </c>
       <c r="L114" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6130,9 +6042,6 @@
       <c r="K115" t="s">
         <v>542</v>
       </c>
-      <c r="L115" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
@@ -6200,9 +6109,6 @@
       <c r="K117" t="s">
         <v>542</v>
       </c>
-      <c r="L117" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
@@ -6235,9 +6141,6 @@
       <c r="K118" t="s">
         <v>542</v>
       </c>
-      <c r="L118" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
@@ -6270,9 +6173,6 @@
       <c r="K119" t="s">
         <v>542</v>
       </c>
-      <c r="L119" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
@@ -6305,9 +6205,6 @@
       <c r="K120" t="s">
         <v>542</v>
       </c>
-      <c r="L120" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
@@ -6341,7 +6238,7 @@
         <v>542</v>
       </c>
       <c r="L121" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6375,9 +6272,6 @@
       <c r="K122" t="s">
         <v>542</v>
       </c>
-      <c r="L122" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
@@ -6411,7 +6305,7 @@
         <v>542</v>
       </c>
       <c r="L123" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6445,9 +6339,6 @@
       <c r="K124" t="s">
         <v>542</v>
       </c>
-      <c r="L124" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
@@ -6480,9 +6371,6 @@
       <c r="K125" t="s">
         <v>542</v>
       </c>
-      <c r="L125" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
@@ -6515,9 +6403,6 @@
       <c r="K126" t="s">
         <v>542</v>
       </c>
-      <c r="L126" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
@@ -6551,7 +6436,7 @@
         <v>542</v>
       </c>
       <c r="L127" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6585,9 +6470,6 @@
       <c r="K128" t="s">
         <v>542</v>
       </c>
-      <c r="L128" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1">
@@ -6620,9 +6502,6 @@
       <c r="K129" t="s">
         <v>542</v>
       </c>
-      <c r="L129" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1">
@@ -6655,9 +6534,6 @@
       <c r="K130" t="s">
         <v>542</v>
       </c>
-      <c r="L130" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1">
@@ -6690,9 +6566,6 @@
       <c r="K131" t="s">
         <v>542</v>
       </c>
-      <c r="L131" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1">
@@ -6725,9 +6598,6 @@
       <c r="K132" t="s">
         <v>542</v>
       </c>
-      <c r="L132" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
@@ -6760,9 +6630,6 @@
       <c r="K133" t="s">
         <v>542</v>
       </c>
-      <c r="L133" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
@@ -6830,9 +6697,6 @@
       <c r="K135" t="s">
         <v>542</v>
       </c>
-      <c r="L135" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
@@ -6865,9 +6729,6 @@
       <c r="K136" t="s">
         <v>542</v>
       </c>
-      <c r="L136" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
@@ -6935,9 +6796,6 @@
       <c r="K138" t="s">
         <v>542</v>
       </c>
-      <c r="L138" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1">
@@ -6970,9 +6828,6 @@
       <c r="K139" t="s">
         <v>542</v>
       </c>
-      <c r="L139" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1">
@@ -7005,9 +6860,6 @@
       <c r="K140" t="s">
         <v>542</v>
       </c>
-      <c r="L140" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
@@ -7040,9 +6892,6 @@
       <c r="K141" t="s">
         <v>542</v>
       </c>
-      <c r="L141" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1">
@@ -7076,7 +6925,7 @@
         <v>542</v>
       </c>
       <c r="L142" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7111,7 +6960,7 @@
         <v>542</v>
       </c>
       <c r="L143" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7145,9 +6994,6 @@
       <c r="K144" t="s">
         <v>542</v>
       </c>
-      <c r="L144" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1">
@@ -7180,9 +7026,6 @@
       <c r="K145" t="s">
         <v>542</v>
       </c>
-      <c r="L145" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1">
@@ -7215,9 +7058,6 @@
       <c r="K146" t="s">
         <v>542</v>
       </c>
-      <c r="L146" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1">
@@ -7250,9 +7090,6 @@
       <c r="K147" t="s">
         <v>542</v>
       </c>
-      <c r="L147" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
@@ -7285,9 +7122,6 @@
       <c r="K148" t="s">
         <v>542</v>
       </c>
-      <c r="L148" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
@@ -7320,9 +7154,6 @@
       <c r="K149" t="s">
         <v>542</v>
       </c>
-      <c r="L149" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1">
@@ -7390,11 +7221,9 @@
       <c r="K151" t="s">
         <v>542</v>
       </c>
-      <c r="L151" t="s">
-        <v>558</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L151"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
